--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3018.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3018.xlsx
@@ -354,7 +354,7 @@
         <v>2.131982855851126</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.289615381885538</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3018.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3018.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169893604942254</v>
+        <v>1.281343579292297</v>
       </c>
       <c r="B1">
-        <v>2.131982855851126</v>
+        <v>1.764230847358704</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.641840815544128</v>
       </c>
       <c r="D1">
-        <v>2.289615381885538</v>
+        <v>4.960494041442871</v>
       </c>
       <c r="E1">
-        <v>1.200990323886127</v>
+        <v>1.38152015209198</v>
       </c>
     </row>
   </sheetData>
